--- a/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
@@ -451,855 +451,1155 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7485</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5784</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4827</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4783</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3195</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004946</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004947</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>004534</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>汇添富年年益定期开放混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>25.79</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>0.52</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>004535</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>汇添富年年益定期开放混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>25.79</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>0.52</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001047</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>光大保德信国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>88.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000017</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通可持续发展主题混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000940</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>84.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160211</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰中小盘成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001004</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>新华稳健回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001312</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安新优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>25.52</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005965</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005966</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001623</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>兴业国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>91.67</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002144</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华安新优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>25.52</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002179</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安事件驱动量化策略混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004946</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富盈润混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>26.49</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004947</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富盈润混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>26.49</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002363</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002364</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009951</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>广发稳健回报混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>56.25</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009952</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>广发稳健回报混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>56.25</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004142</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>501028</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>财通多策略福瑞混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004143</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004986</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鹏华策略回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>86.58</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005695</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005696</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006522</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>财通新兴蓝筹混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>87.64</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006523</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>财通新兴蓝筹混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>87.64</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006967</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>财通行业龙头精选混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>89.66</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006968</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>财通行业龙头精选混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>89.66</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1309,7 +1609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,15 +1630,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004986</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华策略回报灵活配置混合</t>
+          <t>华夏成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>42.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5632</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005492</t>
+          <t>860001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>农银汇理研究驱动灵活配置混合</t>
+          <t>光大阳光混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>61.98</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4508</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000880</t>
+          <t>660012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国研究精选灵活配置混合</t>
+          <t>农银消费主题混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.59</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>001047</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏成长混合</t>
+          <t>光大保德信国企改革主题股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>69.41</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1472,15 +1822,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>89.99</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.84</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009875</t>
+          <t>000880</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘甄选食品饮料股票A</t>
+          <t>富国研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009876</t>
+          <t>001382</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘甄选食品饮料股票C</t>
+          <t>易方达国企改革混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>010418</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>财通景气行业一年封闭运作混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000551</t>
+          <t>004986</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>信诚幸福消费混合</t>
+          <t>鹏华策略回报灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>84.90</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006522</t>
+          <t>002363</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通新兴蓝筹混合A</t>
+          <t>华安安康灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.47</t>
+          <t>13.92</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006523</t>
+          <t>501026</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通新兴蓝筹混合C</t>
+          <t>财通多策略福享混合（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>86.47</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010418</t>
+          <t>009875</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通景气行业一年封闭运作混合</t>
+          <t>天弘甄选食品饮料股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>70.44</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501026</t>
+          <t>009476</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通多策略福享混合（LOF）</t>
+          <t>建信食品饮料行业股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>501028</t>
+          <t>501063</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>财通多策略福瑞混合（LOF）</t>
+          <t>汇添富悦享定期开放混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>86.63</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001047</t>
+          <t>519625</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>光大保德信国企改革主题股票</t>
+          <t>银河君盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>87.25</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006967</t>
+          <t>519626</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>财通行业龙头精选混合A</t>
+          <t>银河君盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006968</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>财通行业龙头精选混合C</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>501063</t>
+          <t>501028</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>汇添富悦享定期开放混合</t>
+          <t>财通多策略福瑞混合（LOF）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>75.69</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1854,25 +2344,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001382</t>
+          <t>009876</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达国企改革混合</t>
+          <t>天弘甄选食品饮料股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>519625</t>
+          <t>000551</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>银河君盛灵活配置混合A</t>
+          <t>信诚幸福消费混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>30.13</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>519626</t>
+          <t>770001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>银河君盛灵活配置混合C</t>
+          <t>德邦优化灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30.13</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1938,25 +2458,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>519656</t>
+          <t>002364</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - A</t>
+          <t>华安安康灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>58.77</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1966,25 +2496,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>519657</t>
+          <t>005492</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - C</t>
+          <t>农银汇理研究驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>58.77</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>61.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>660012</t>
+          <t>519656</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>农银消费主题混合A</t>
+          <t>银河灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>85.88</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>960033</t>
+          <t>006522</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>农银消费主题混合H</t>
+          <t>财通新兴蓝筹混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>85.88</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2050,25 +2610,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002363</t>
+          <t>002543</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合A</t>
+          <t>长城久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>60.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2078,25 +2648,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002364</t>
+          <t>519657</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合C</t>
+          <t>银河灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2106,25 +2686,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>770001</t>
+          <t>006967</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>德邦优化灵活配置混合</t>
+          <t>财通行业龙头精选混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2134,25 +2724,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002543</t>
+          <t>002544</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>长城久益灵活配置混合A</t>
+          <t>长城久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>60.29</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2.79</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>002544</t>
+          <t>004534</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>长城久益灵活配置混合C</t>
+          <t>汇添富年年益定期开放混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>60.29</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>004456</t>
+          <t>006968</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>兴银消费新趋势灵活配置混合</t>
+          <t>财通行业龙头精选混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>88.57</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>6</v>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>004534</t>
+          <t>004456</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>汇添富年年益定期开放混合A</t>
+          <t>兴银消费新趋势灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>004535</t>
+          <t>006523</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>汇添富年年益定期开放混合C</t>
+          <t>财通新兴蓝筹混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009476</t>
+          <t>860036</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>建信食品饮料行业股票</t>
+          <t>光大阳光混合B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>8</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2302,25 +2952,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>860001</t>
+          <t>004535</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>光大阳光混合A</t>
+          <t>汇添富年年益定期开放混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2330,26 +2990,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>860036</t>
+          <t>960033</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>光大阳光混合B</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>9</v>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2366,17 +3030,21 @@
           <t>光大阳光混合C</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>94.76</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2998,7 +2999,6 @@
           <t>农银消费主题混合H</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>85.88</t>
@@ -3030,7 +3030,6 @@
           <t>光大阳光混合C</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>94.76</t>
@@ -3046,6 +3045,818 @@
       </c>
       <c r="H38" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010196</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6830</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4894</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4177</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4038</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3862,4 +3863,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4071,4 +4072,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4080,7 +4081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4091,17 +4092,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4111,14 +4132,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2023</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4127,14 +4170,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.72</v>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8821</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4143,14 +4208,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.81</v>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4159,13 +4246,1479 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5617,7 +5618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5628,17 +5629,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5648,14 +5669,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.65</v>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1559</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5664,14 +5707,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.33</v>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4342</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5680,14 +5745,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.72</v>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3958</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5696,14 +5783,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.81</v>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5712,13 +5821,2637 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>59.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>52.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>29</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8334,7 +8335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8345,17 +8346,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8365,14 +8386,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>70</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.62</v>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0171</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8381,14 +8424,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.65</v>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2928</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -8397,14 +8462,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.33</v>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -8413,14 +8500,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.72</v>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -8429,14 +8538,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>37</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.81</v>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -8445,13 +8576,2611 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010589</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010890</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014029</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004948</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>68.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010590</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010891</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015463</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015475</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004944</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>29</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002507-涪陵榨菜.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>5.3</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>6.62</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>5.65</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>6.72</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>4.81</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>29</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010815</t>
+          <t>006593</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>农银汇理新兴消费股票</t>
+          <t>博道中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.60</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.91</t>
+          <t>92.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0171</t>
+          <t>0.3278</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009428</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合A</t>
+          <t>嘉实量化精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>50.48</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.04</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2928</t>
+          <t>0.2242</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008174</t>
+          <t>009428</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰蓝筹精选混合A</t>
+          <t>鹏扬景沣六个月持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>35.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>24.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2731</t>
+          <t>0.1993</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -770,32 +787,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011645</t>
+          <t>005236</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰核心价值两年持有期股票型证券投资基金A</t>
+          <t>银华食品饮料量化优选股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.94</t>
+          <t>91.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2521</t>
+          <t>0.1972</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>420003</t>
+          <t>005994</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘永定价值成长混合</t>
+          <t>国投瑞银中证500指数量化增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.20</t>
+          <t>88.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2481</t>
+          <t>0.1563</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501093</t>
+          <t>006594</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏翔阳两年定期开放混合</t>
+          <t>博道中证500指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>92.30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2308</t>
+          <t>0.1455</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519125</t>
+          <t>011818</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合A</t>
+          <t>鹏扬景阳一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>22.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>23.35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2281</t>
+          <t>0.1409</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>660012</t>
+          <t>011017</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>农银消费主题混合A</t>
+          <t>鹏扬景明一年持有期混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>18.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.66</t>
+          <t>23.56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2207</t>
+          <t>0.1013</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>960033</t>
+          <t>011521</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>农银消费主题混合H</t>
+          <t>鹏扬景源一年持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>83.66</t>
+          <t>23.83</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2207</t>
+          <t>0.0902</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000880</t>
+          <t>014155</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国研究精选灵活配置混合</t>
+          <t>国泰君安中证500指数增强A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2065</t>
+          <t>0.0883</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>164205</t>
+          <t>009064</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘文化新兴产业股票</t>
+          <t>鹏扬景沃六个月持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.82</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1818</t>
+          <t>0.0835</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011017</t>
+          <t>005235</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏扬景明一年持有期混合</t>
+          <t>银华食品饮料量化优选股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>22.06</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22.96</t>
+          <t>91.64</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1302</t>
+          <t>0.0774</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009064</t>
+          <t>257050</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏扬景沃六个月持有期混合A</t>
+          <t>国联安主题驱动混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>22.12</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>22.49</t>
+          <t>93.02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1217</t>
+          <t>0.0604</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009476</t>
+          <t>005062</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>建信食品饮料行业股票</t>
+          <t>博时中证500指数增强A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>86.06</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1217</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011521</t>
+          <t>014156</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏扬景源一年持有期混合A</t>
+          <t>国泰君安中证500指数增强C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>17.79</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>22.88</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1156</t>
+          <t>0.0535</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009876</t>
+          <t>007089</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天弘甄选食品饮料股票C</t>
+          <t>国投瑞银中证500指数量化增强C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89.98</t>
+          <t>88.67</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0957</t>
+          <t>0.0521</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001050</t>
+          <t>004209</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>汇添富成长多因子量化策略股票</t>
+          <t>大成智惠量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0906</t>
+          <t>0.0507</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1302,36 +1319,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>519176</t>
+          <t>009065</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合C</t>
+          <t>鹏扬景沃六个月持有期混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0888</t>
+          <t>0.0391</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1340,32 +1357,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>257050</t>
+          <t>009726</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国联安主题驱动混合</t>
+          <t>招商中证500等权重指数增强A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0858</t>
+          <t>0.0368</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1378,36 +1395,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>004209</t>
+          <t>012971</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大成智惠量化多策略灵活配置混合</t>
+          <t>东吴消费成长混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0808</t>
+          <t>0.0317</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1416,36 +1433,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009875</t>
+          <t>009429</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天弘甄选食品饮料股票A</t>
+          <t>鹏扬景沣六个月持有期混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>89.98</t>
+          <t>24.38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0737</t>
+          <t>0.0311</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1454,32 +1471,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005552</t>
+          <t>009130</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合A</t>
+          <t>鹏扬景恒六个月持有期混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21.16</t>
+          <t>24.46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0714</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1492,36 +1509,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001463</t>
+          <t>580005</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>光大保德信一带一路战略主题混合</t>
+          <t>东吴进取策略混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>82.40</t>
+          <t>78.51</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0679</t>
+          <t>0.0284</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1530,36 +1547,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>673010</t>
+          <t>002316</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>西部利得新动向混合</t>
+          <t>创金合信中证500指数增强C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>65.73</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0674</t>
+          <t>0.0264</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1568,36 +1585,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>000551</t>
+          <t>002311</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>信诚幸福消费混合</t>
+          <t>创金合信中证500指数增强A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0655</t>
+          <t>0.0239</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1606,36 +1623,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>530012</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>建信积极配置混合</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>73.25</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0625</t>
+          <t>0.0223</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1644,36 +1661,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>519115</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>浦银安盛红利精选混合</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0551</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1682,36 +1699,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001352</t>
+          <t>005795</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>民生加银新战略灵活配置混合</t>
+          <t>博时中证500指数增强C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26.52</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0456</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1720,36 +1737,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001601</t>
+          <t>011522</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鑫元鑫新收益灵活配置混合A</t>
+          <t>鹏扬景源一年持有期混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>72.33</t>
+          <t>23.83</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0415</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1758,32 +1775,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009429</t>
+          <t>009727</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合C</t>
+          <t>招商中证500等权重指数增强C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>22.04</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0404</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1796,36 +1813,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009065</t>
+          <t>009128</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鹏扬景沃六个月持有期混合C</t>
+          <t>明亚价值长青混合A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>22.49</t>
+          <t>57.73</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0390</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1834,36 +1851,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009130</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鹏扬景恒六个月持有期混合A</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1872,36 +1889,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>011389</t>
+          <t>009131</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国都聚成混合</t>
+          <t>鹏扬景恒六个月持有期混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>84.42</t>
+          <t>24.46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0349</t>
+          <t>0.0095</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1910,32 +1927,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>005910</t>
+          <t>012972</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>广发龙头优选灵活配置混合</t>
+          <t>东吴消费成长混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1948,36 +1965,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>010589</t>
+          <t>011819</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鹏扬景安一年持有期混合A</t>
+          <t>鹏扬景阳一年持有期混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20.24</t>
+          <t>23.35</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1986,36 +2003,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>010890</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>交银施罗德鸿福六个月持有期混合A</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>21.26</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2024,36 +2041,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>008175</t>
+          <t>005120</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国泰蓝筹精选混合C</t>
+          <t>上投摩根量化多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0238</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -2062,36 +2079,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>011522</t>
+          <t>008719</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鹏扬景源一年持有期混合C</t>
+          <t>德邦安顺混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>22.88</t>
+          <t>22.84</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2100,36 +2117,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>450007</t>
+          <t>008720</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国富成长动力混合</t>
+          <t>德邦安顺混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>22.84</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2138,36 +2155,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>011179</t>
+          <t>006157</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>浙商智选食品饮料股票A</t>
+          <t>财通量化核心优选混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>83.87</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2176,36 +2193,34 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>001318</t>
+          <t>011242</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东方新策略灵活配置混合A</t>
+          <t>东吴进取策略混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>29.59</t>
+          <t>78.51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2214,1096 +2229,34 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>003938</t>
+          <t>009129</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>南方荣尊混合A</t>
+          <t>明亚价值长青混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>28.84</t>
+          <t>57.73</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>005553</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>富兰克林国海新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>21.16</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>009131</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>鹏扬景恒六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>23.75</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>008135</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>华宸未来价值先锋混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>82.52</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>007381</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>国融融信消费严选混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>84.32</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>011646</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>国泰核心价值两年持有期股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>014864</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>建信食品饮料行业股票C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>86.06</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>002060</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>29.59</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>014029</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>浦银安盛红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>002020</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>国都创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>87.78</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>011180</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>浙商智选食品饮料股票C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>002773</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>光大保德信铭鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>83.65</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>004948</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>鑫元鑫趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>30.81</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>001657</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>长安鑫富领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>80.94</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>005264</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>国都多策略混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>68.91</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>010590</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>鹏扬景安一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>20.24</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>002774</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>光大保德信铭鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>83.65</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>011391</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>民生加银新战略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>26.52</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>007382</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>国融融信消费严选混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>84.32</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>004166</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>003939</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>南方荣尊混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>28.84</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>010891</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>交银施罗德鸿福六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>21.26</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>001495</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>东方新价值混合A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>27.37</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>002162</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>东方新价值混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>27.37</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>015463</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>天弘永定价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>87.20</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>015475</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>天弘文化新兴产业股票C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>85.82</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>004944</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>鑫元鑫趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>30.81</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>007686</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>001602</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>鑫元鑫新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>72.33</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3368,36 +2321,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010298</t>
+          <t>010815</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富品牌驱动六个月持有期混合</t>
+          <t>农银汇理新兴消费股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.17</t>
+          <t>32.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.42</t>
+          <t>80.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1559</t>
+          <t>1.0171</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3406,36 +2359,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020005</t>
+          <t>009428</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金马稳健混合</t>
+          <t>鹏扬景沣六个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>50.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.06</t>
+          <t>22.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4342</t>
+          <t>0.2928</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3444,36 +2397,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519125</t>
+          <t>008174</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合A</t>
+          <t>国泰蓝筹精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.16</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3958</t>
+          <t>0.2731</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3482,36 +2435,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011837</t>
+          <t>011645</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+          <t>国泰核心价值两年持有期股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.40</t>
+          <t>89.94</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3038</t>
+          <t>0.2521</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3520,36 +2473,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008174</t>
+          <t>420003</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰蓝筹精选混合A</t>
+          <t>天弘永定价值成长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>87.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2572</t>
+          <t>0.2481</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3558,36 +2511,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009958</t>
+          <t>501093</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长安鑫悦消费驱动混合A</t>
+          <t>华夏翔阳两年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.78</t>
+          <t>91.33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2471</t>
+          <t>0.2308</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -3596,32 +2549,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011645</t>
+          <t>519125</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰核心价值两年持有期股票型证券投资基金A</t>
+          <t>浦银安盛消费升级混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.72</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2370</t>
+          <t>0.2281</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3634,36 +2587,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007523</t>
+          <t>660012</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富内需增长股票A</t>
+          <t>农银消费主题混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.07</t>
+          <t>83.66</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2094</t>
+          <t>0.2207</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -3672,36 +2625,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519176</t>
+          <t>960033</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合C</t>
+          <t>农银消费主题混合H</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.16</t>
+          <t>83.66</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1987</t>
+          <t>0.2207</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -3710,36 +2663,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>660012</t>
+          <t>000880</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>农银消费主题混合A</t>
+          <t>富国研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>65.93</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1953</t>
+          <t>0.2065</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3748,36 +2701,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>960033</t>
+          <t>164205</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>农银消费主题混合H</t>
+          <t>天弘文化新兴产业股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>65.93</t>
+          <t>85.82</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1953</t>
+          <t>0.1818</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -3786,36 +2739,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005726</t>
+          <t>011017</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰价值精选灵活配置混合A</t>
+          <t>鹏扬景明一年持有期混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>22.06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>22.96</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1904</t>
+          <t>0.1302</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -3824,36 +2777,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501093</t>
+          <t>009064</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华夏翔阳两年定期开放混合</t>
+          <t>鹏扬景沃六个月持有期混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>22.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>78.10</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1823</t>
+          <t>0.1217</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -3862,36 +2815,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006007</t>
+          <t>009476</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>诺安积极配置混合A</t>
+          <t>建信食品饮料行业股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.87</t>
+          <t>86.06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1791</t>
+          <t>0.1217</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -3900,36 +2853,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009875</t>
+          <t>011521</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天弘甄选食品饮料股票A</t>
+          <t>鹏扬景源一年持有期混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>17.79</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82.33</t>
+          <t>22.88</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1758</t>
+          <t>0.1156</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -3938,36 +2891,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009968</t>
+          <t>009876</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合A</t>
+          <t>天弘甄选食品饮料股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>85.02</t>
+          <t>89.98</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>0.0957</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -3976,36 +2929,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>320012</t>
+          <t>001050</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>诺安主题精选混合</t>
+          <t>汇添富成长多因子量化策略股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>82.02</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1299</t>
+          <t>0.0906</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -4014,36 +2967,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>519115</t>
+          <t>519176</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浦银安盛红利精选混合</t>
+          <t>浦银安盛消费升级混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>88.68</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1296</t>
+          <t>0.0888</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -4052,36 +3005,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009876</t>
+          <t>257050</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天弘甄选食品饮料股票C</t>
+          <t>国联安主题驱动混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>82.33</t>
+          <t>90.49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1255</t>
+          <t>0.0858</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -4090,32 +3043,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>880007</t>
+          <t>004209</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>招商资管智远成长灵活配置混合A</t>
+          <t>大成智惠量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1190</t>
+          <t>0.0808</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -4128,36 +3081,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001193</t>
+          <t>009875</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中金消费升级股票</t>
+          <t>天弘甄选食品饮料股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>85.49</t>
+          <t>89.98</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1074</t>
+          <t>0.0737</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -4166,36 +3119,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009476</t>
+          <t>005552</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>建信食品饮料行业股票</t>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>21.16</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1028</t>
+          <t>0.0714</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -4204,36 +3157,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>004209</t>
+          <t>001463</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大成智惠量化多策略灵活配置混合</t>
+          <t>光大保德信一带一路战略主题混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>82.40</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.1022</t>
+          <t>0.0679</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -4242,36 +3195,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>257050</t>
+          <t>673010</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国联安主题驱动混合</t>
+          <t>西部利得新动向混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>65.37</t>
+          <t>65.73</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0692</t>
+          <t>0.0674</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -4280,36 +3233,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002628</t>
+          <t>000551</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商安博灵活配置混合A</t>
+          <t>信诚幸福消费混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>65.07</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0651</t>
+          <t>0.0655</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -4318,36 +3271,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002305</t>
+          <t>530012</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>光大保德信风格轮动混合A</t>
+          <t>建信积极配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>73.25</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0642</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -4356,36 +3309,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001463</t>
+          <t>519115</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>光大保德信一带一路战略主题混合</t>
+          <t>浦银安盛红利精选混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>82.17</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0641</t>
+          <t>0.0551</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -4394,36 +3347,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009959</t>
+          <t>001352</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>长安鑫悦消费驱动混合C</t>
+          <t>民生加银新战略灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>86.78</t>
+          <t>26.52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0573</t>
+          <t>0.0456</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -4432,36 +3385,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002005</t>
+          <t>001601</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>工银瑞信新得利混合</t>
+          <t>鑫元鑫新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>29.93</t>
+          <t>72.33</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0489</t>
+          <t>0.0415</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -4470,36 +3423,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>673010</t>
+          <t>009429</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>西部利得新动向混合</t>
+          <t>鹏扬景沣六个月持有期混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>59.15</t>
+          <t>22.04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0488</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -4508,36 +3461,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>000551</t>
+          <t>009065</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>信诚幸福消费混合</t>
+          <t>鹏扬景沃六个月持有期混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>86.56</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0472</t>
+          <t>0.0390</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -4546,36 +3499,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>007499</t>
+          <t>009130</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>光大保德信风格轮动混合C</t>
+          <t>鹏扬景恒六个月持有期混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>23.75</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0385</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -4584,32 +3537,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>001318</t>
+          <t>011389</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>东方新策略灵活配置混合A</t>
+          <t>国都聚成混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>28.13</t>
+          <t>84.42</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0451</t>
+          <t>0.0349</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -4622,36 +3575,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>003704</t>
+          <t>005910</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>光大保德信事件驱动灵活配置混合</t>
+          <t>广发龙头优选灵活配置混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>23.55</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -4660,36 +3613,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>009969</t>
+          <t>010589</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合C</t>
+          <t>鹏扬景安一年持有期混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>85.02</t>
+          <t>20.24</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0443</t>
+          <t>0.0282</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -4698,36 +3651,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>011838</t>
+          <t>010890</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+          <t>交银施罗德鸿福六个月持有期混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>83.40</t>
+          <t>21.26</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -4736,36 +3689,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>002212</t>
+          <t>008175</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>嘉实新起航灵活配置混合</t>
+          <t>国泰蓝筹精选混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>85.31</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0399</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -4774,36 +3727,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>530016</t>
+          <t>011522</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>建信恒稳价值混合</t>
+          <t>鹏扬景源一年持有期混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>57.74</t>
+          <t>22.88</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0337</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -4812,36 +3765,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>011389</t>
+          <t>450007</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国都聚成混合</t>
+          <t>国富成长动力混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>87.22</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0141</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -4850,36 +3803,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>008175</t>
+          <t>011179</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国泰蓝筹精选混合C</t>
+          <t>浙商智选食品饮料股票A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -4888,36 +3841,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>881007</t>
+          <t>001318</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>招商资管智远成长灵活配置混合C</t>
+          <t>东方新策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -4926,36 +3879,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>010690</t>
+          <t>003938</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>万家互联互通核心资产量化策略混合A</t>
+          <t>南方荣尊混合A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>28.84</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0121</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -4964,36 +3917,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>007524</t>
+          <t>005553</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>汇添富内需增长股票C</t>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>88.07</t>
+          <t>21.16</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -5002,36 +3955,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>006008</t>
+          <t>009131</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>诺安积极配置混合C</t>
+          <t>鹏扬景恒六个月持有期混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>80.87</t>
+          <t>23.75</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0248</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -5040,36 +3993,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>002060</t>
+          <t>008135</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>东方新策略灵活配置混合C</t>
+          <t>华宸未来价值先锋混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>28.13</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0229</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -5078,36 +4031,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>004166</t>
+          <t>007381</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东方价值挖掘灵活配置混合A</t>
+          <t>国融融信消费严选混合A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>33.44</t>
+          <t>84.32</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -5116,36 +4069,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>001226</t>
+          <t>011646</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中邮稳健添利灵活配置混合</t>
+          <t>国泰核心价值两年持有期股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>89.94</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -5154,32 +4107,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>400020</t>
+          <t>014864</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>东方成长回报平衡混合</t>
+          <t>建信食品饮料行业股票C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>52.39</t>
+          <t>86.06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -5192,32 +4145,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>001495</t>
+          <t>002060</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>东方新价值混合A</t>
+          <t>东方新策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>29.56</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -5230,36 +4183,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>002512</t>
+          <t>014029</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>长城久润混合</t>
+          <t>浦银安盛红利精选混合C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -5268,36 +4221,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>011179</t>
+          <t>002020</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>浙商智选食品饮料股票A</t>
+          <t>国都创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>87.78</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -5306,36 +4259,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>002629</t>
+          <t>011180</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>招商安博灵活配置混合C</t>
+          <t>浙商智选食品饮料股票C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>65.07</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -5344,36 +4297,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>000649</t>
+          <t>002773</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>长城久鑫灵活配置混合</t>
+          <t>光大保德信铭鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>81.08</t>
+          <t>83.65</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -5382,36 +4335,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>007381</t>
+          <t>004948</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>国融融信消费严选混合A</t>
+          <t>鑫元鑫趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>68.97</t>
+          <t>30.81</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -5420,36 +4373,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>011646</t>
+          <t>001657</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>国泰核心价值两年持有期股票型证券投资基金C</t>
+          <t>长安鑫富领先灵活配置混合</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>87.72</t>
+          <t>80.94</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -5458,36 +4411,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>008135</t>
+          <t>005264</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华宸未来价值先锋混合</t>
+          <t>国都多策略混合</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>86.99</t>
+          <t>68.91</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -5496,36 +4449,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>010691</t>
+          <t>010590</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>万家互联互通核心资产量化策略混合C</t>
+          <t>鹏扬景安一年持有期混合C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>20.24</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -5534,36 +4487,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>002162</t>
+          <t>002774</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>东方新价值混合C</t>
+          <t>光大保德信铭鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>29.56</t>
+          <t>83.65</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -5572,36 +4525,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>011761</t>
+          <t>011391</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>平安鑫瑞混合型证券投资基金A</t>
+          <t>民生加银新战略灵活配置混合C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>20.41</t>
+          <t>26.52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -5610,36 +4563,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>001730</t>
+          <t>007382</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>兴银大健康灵活配置混合</t>
+          <t>国融融信消费严选混合C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>91.54</t>
+          <t>84.32</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -5648,12 +4601,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>011180</t>
+          <t>004166</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>浙商智选食品饮料股票C</t>
+          <t>东方价值挖掘灵活配置混合A</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5663,21 +4616,21 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -5686,36 +4639,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>002773</t>
+          <t>003939</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>光大保德信铭鑫灵活配置混合A</t>
+          <t>南方荣尊混合C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>28.84</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -5724,36 +4677,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>000761</t>
+          <t>010891</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>国富健康优质生活股票</t>
+          <t>交银施罗德鸿福六个月持有期混合C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>21.26</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -5762,36 +4715,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>007686</t>
+          <t>001495</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>东方价值挖掘灵活配置混合C</t>
+          <t>东方新价值混合A</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>33.44</t>
+          <t>27.37</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -5800,32 +4753,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>011762</t>
+          <t>002162</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>平安鑫瑞混合型证券投资基金C</t>
+          <t>东方新价值混合C</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>20.41</t>
+          <t>27.37</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -5838,36 +4791,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>007382</t>
+          <t>015463</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国融融信消费严选混合C</t>
+          <t>天弘永定价值成长混合C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>68.97</t>
+          <t>87.20</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -5876,36 +4829,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>002774</t>
+          <t>015475</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>光大保德信铭鑫灵活配置混合C</t>
+          <t>天弘文化新兴产业股票C</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>85.82</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -5914,12 +4867,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>673120</t>
+          <t>004944</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>西部利得新富灵活配置混合</t>
+          <t>鑫元鑫趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5929,21 +4882,21 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>80.77</t>
+          <t>30.81</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -5952,36 +4905,34 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>011324</t>
+          <t>007686</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国泰价值精选灵活配置混合C</t>
+          <t>东方价值挖掘灵活配置混合C</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -5990,36 +4941,34 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>003582</t>
+          <t>001602</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中金量化多策略灵活配置混合</t>
+          <t>鑫元鑫新收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>72.33</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6028,6 +4977,2722 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1559</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4342</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3958</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>59.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>52.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7563,7 +9228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7771,7 +9436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8583,7 +10248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10031,7 +11696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
